--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008972</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.17</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>008972</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -828,15 +948,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.53</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1881,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1897,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1913,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00586-海螺创业.xlsx
+++ b/数据整理/stocks/港股/00586-海螺创业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.82</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1627</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -791,188 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1545</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1037,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1904</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1075,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1007</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1113,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1166,21 +900,59 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,36 +1263,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>88.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1423</t>
+          <t>0.1904</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1529,36 +1301,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.1007</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1567,36 +1339,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1620,59 +1392,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1441,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>007109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>南方沪港深核心优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>80.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.1627</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1509,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>004996</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1818,128 +1704,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>